--- a/codes/Correlations.xlsx
+++ b/codes/Correlations.xlsx
@@ -375,250 +375,250 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4">
-        <v>0.3779973862333306</v>
+        <v>0.1980234458981386</v>
       </c>
       <c r="C4">
-        <v>0.7321388805128892</v>
+        <v>0.6440760913932224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>0.1804836252231355</v>
+        <v>0.07700916291113345</v>
       </c>
       <c r="C5">
-        <v>0.6401507750222249</v>
+        <v>0.557838340067319</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6">
-        <v>0.09375601737211721</v>
+        <v>0.01348466692671331</v>
       </c>
       <c r="C6">
-        <v>0.5856709016934154</v>
+        <v>0.509919502829862</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7">
-        <v>0.04892629008598986</v>
+        <v>0.008310512303300937</v>
       </c>
       <c r="C7">
-        <v>0.5521629807263245</v>
+        <v>0.4766303184523707</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8">
-        <v>0.02674985964104126</v>
+        <v>-0.003758704590680476</v>
       </c>
       <c r="C8">
-        <v>0.5297861594047965</v>
+        <v>0.4345289896321616</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9">
-        <v>0.01447230152032785</v>
+        <v>0.008767519474774456</v>
       </c>
       <c r="C9">
-        <v>0.5144153445466383</v>
+        <v>0.4317156595858622</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10">
-        <v>0.008627328530740523</v>
+        <v>0.02858722514966689</v>
       </c>
       <c r="C10">
-        <v>0.4983794784333228</v>
+        <v>0.4088259216192215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11">
-        <v>0.00910650421685935</v>
+        <v>0.03059579337711522</v>
       </c>
       <c r="C11">
-        <v>0.482054846145644</v>
+        <v>0.4109687894321136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12">
-        <v>0.006173086494886332</v>
+        <v>0.007501048125163454</v>
       </c>
       <c r="C12">
-        <v>0.4817311179905392</v>
+        <v>0.4059757440693941</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13">
-        <v>0.01380716019553809</v>
+        <v>-0.007704981103001768</v>
       </c>
       <c r="C13">
-        <v>0.4684554699824215</v>
+        <v>0.3869156538781123</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14">
-        <v>0.008219430527348644</v>
+        <v>0.009159124905737</v>
       </c>
       <c r="C14">
-        <v>0.4567863671898383</v>
+        <v>0.3924756679615058</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15">
-        <v>0.0003347067924267273</v>
+        <v>-0.008426069906467463</v>
       </c>
       <c r="C15">
-        <v>0.4482979733843184</v>
+        <v>0.3706192598067707</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16">
-        <v>-0.001031262122615813</v>
+        <v>0.01734791495637925</v>
       </c>
       <c r="C16">
-        <v>0.4376222971732782</v>
+        <v>0.3500858422636363</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17">
-        <v>0.006753128587785284</v>
+        <v>0.02291280414273365</v>
       </c>
       <c r="C17">
-        <v>0.4403966202930499</v>
+        <v>0.3675522887481002</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18">
-        <v>0.0007790244640458125</v>
+        <v>-0.002801722220688026</v>
       </c>
       <c r="C18">
-        <v>0.4337585302347542</v>
+        <v>0.3661570328496669</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19">
-        <v>0.003243350095002085</v>
+        <v>-0.004111849328964285</v>
       </c>
       <c r="C19">
-        <v>0.4320498436002629</v>
+        <v>0.3522667385562258</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
-        <v>-0.00526703315868853</v>
+        <v>-0.006033477968735092</v>
       </c>
       <c r="C20">
-        <v>0.4240306972316091</v>
+        <v>0.3323259544986595</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21">
-        <v>0.004934226424122654</v>
+        <v>-0.014582216784639</v>
       </c>
       <c r="C21">
-        <v>0.4249280782877985</v>
+        <v>0.351449170282191</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22">
-        <v>-0.00121859803328071</v>
+        <v>0.008966108732695649</v>
       </c>
       <c r="C22">
-        <v>0.4232679441514407</v>
+        <v>0.3430981942475991</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23">
-        <v>0.00363497440664752</v>
+        <v>0.01142413051778631</v>
       </c>
       <c r="C23">
-        <v>0.4166856316695348</v>
+        <v>0.3333535828722148</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
-        <v>0.0009438060851719094</v>
+        <v>0.008689312285308266</v>
       </c>
       <c r="C24">
-        <v>0.4149908825324544</v>
+        <v>0.3240352464053461</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25">
-        <v>-0.001088785930497267</v>
+        <v>0.01524433633649656</v>
       </c>
       <c r="C25">
-        <v>0.4124213423805196</v>
+        <v>0.3313668968039979</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26">
-        <v>0.007969440466447764</v>
+        <v>-0.009579751831838141</v>
       </c>
       <c r="C26">
-        <v>0.4082105041748005</v>
+        <v>0.3310031151712137</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27">
-        <v>-0.0001644600200836131</v>
+        <v>0.006338860360225831</v>
       </c>
       <c r="C27">
-        <v>0.4019912504984836</v>
+        <v>0.3254929031665078</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28">
-        <v>-0.00212606400419353</v>
+        <v>-0.02297098714528846</v>
       </c>
       <c r="C28">
-        <v>0.4108172393286316</v>
+        <v>0.3133263222212131</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29">
-        <v>0.006939467482929397</v>
+        <v>0.02748518787924766</v>
       </c>
       <c r="C29">
-        <v>0.4144570661969994</v>
+        <v>0.3364935594400613</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30">
-        <v>0.00469992814239191</v>
+        <v>0.003111841050986689</v>
       </c>
       <c r="C30">
-        <v>0.4095456685920108</v>
+        <v>0.3161440451389985</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31">
-        <v>0.002224595678201217</v>
+        <v>-0.004333809101430628</v>
       </c>
       <c r="C31">
-        <v>0.4132324253532145</v>
+        <v>0.3155961027719838</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32">
-        <v>-0.002665337366627875</v>
+        <v>-0.01393510349333517</v>
       </c>
       <c r="C32">
-        <v>0.4030926609918284</v>
+        <v>0.3432276590897466</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33">
-        <v>0.002210148780989964</v>
+        <v>4.61372279919217e-05</v>
       </c>
       <c r="C33">
-        <v>0.3981250960077879</v>
+        <v>0.3064480153824337</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34">
-        <v>0.007850049304216497</v>
+        <v>0.0002339359189576489</v>
       </c>
       <c r="C34">
-        <v>0.4057858757582473</v>
+        <v>0.3325473906043243</v>
       </c>
     </row>
   </sheetData>
